--- a/Progress record.xlsx
+++ b/Progress record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DBB9B6-904F-4D51-B510-9DA41C36F3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD3114-A468-4649-A3A1-6CE0F40CE69D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Nathan</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Please choose a notebook and work on the following:</t>
   </si>
   <si>
-    <t>After you are done, put the corresponding label, for example:</t>
-  </si>
-  <si>
     <t>L70</t>
   </si>
   <si>
@@ -65,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">examples and style. </t>
+  </si>
+  <si>
+    <t>When you are working on a notebook put the corresponding label, for example:</t>
+  </si>
+  <si>
+    <t>After you are done, add a . After the digit.</t>
+  </si>
+  <si>
+    <t>3.45.</t>
   </si>
 </sst>
 </file>
@@ -384,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +488,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -509,7 +515,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -528,7 +534,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -536,7 +542,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -544,7 +550,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -556,16 +562,37 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
       <c r="G19">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
       <c r="G20">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>2.5</v>
+      </c>
       <c r="G21">
         <v>20</v>
       </c>
@@ -592,5 +619,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>